--- a/00_はじめてのエクセル.xlsx
+++ b/00_はじめてのエクセル.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{46C60142-097D-451F-BCF5-747EA85439EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AA94002B-986C-46E9-8C08-846FAE4D37BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="演算子" sheetId="2" r:id="rId1"/>
+    <sheet name="はじめてのエクセル" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>演算子の結合規則と優先順位 (Java)</t>
   </si>
@@ -280,6 +292,104 @@
   </si>
   <si>
     <t>dated at 2021-08-10Posted at 2021-08-05</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>平日シフト</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>休日シフト</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>清水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>近藤</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
     <phoneticPr fontId="28"/>
   </si>
 </sst>
@@ -959,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,6 +1134,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,7 +1499,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2031,4 +2144,104 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="28"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>